--- a/biology/Botanique/Parc_d'Émonville/Parc_d'Émonville.xlsx
+++ b/biology/Botanique/Parc_d'Émonville/Parc_d'Émonville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_d%27%C3%89monville</t>
+          <t>Parc_d'Émonville</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc d'Émonville est un jardin public situé dans le centre-ville d'Abbeville. Il est attenant au jardin du Carmel.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_d%27%C3%89monville</t>
+          <t>Parc_d'Émonville</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc d'Émonville faisait partie, à l'origine, de l’enclos du prieuré bénédictin Saint-Pierre-et-Saint-Paul d’Abbeville. Il fut déclaré bien national à la Révolution. 
 Il devint au XIXe siècle la propriété d'Arthur Fouques d’Émonville (1810-1880), botaniste et collectionneur de camélias. 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_d%27%C3%89monville</t>
+          <t>Parc_d'Émonville</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,17 +560,88 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc d'Émonville est un jardin à l'anglaise avec statues, plan d'eau, pont...
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le parc d'Émonville est un jardin à l'anglaise avec statues, plan d'eau, pont...
 Le plan du parc se divise en deux ensembles :
 la partie sud, en terrain plat, est constituée de deux pelouses fleuries, d'un bassin aux berges sinueuses, plantées d'un bouleau pleureur et d’un magnolia Soulangeana. Contre le mur, pousse une collection de plantes vivaces sur plus de 1 000 m2. Des serres et un ancien réservoir d'eau complètent l'aménagement ;
-la partie nord, installée sur un rebord de pente, s'organise autour d’une grande pièce d’eau traversée par un pont.
-Statues
-Monument à l’historien et poète Ernest Prarond (1821-1908), buste en bronze, œuvre d'Emmanuel Fontaine.
+la partie nord, installée sur un rebord de pente, s'organise autour d’une grande pièce d’eau traversée par un pont.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Parc_d'Émonville</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_d%27%C3%89monville</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Statues</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Monument à l’historien et poète Ernest Prarond (1821-1908), buste en bronze, œuvre d'Emmanuel Fontaine.
 Petite statue en terre cuite d'un jeune garçon portant sur ses épaules une corne de bélier.
-Trois statues en plomb d'Apollon, Mercure et Diane d’après Jean de Bologne.
-Essences remarquables
+Trois statues en plomb d'Apollon, Mercure et Diane d’après Jean de Bologne.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Parc_d'Émonville</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_d%27%C3%89monville</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Essences remarquables</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Magnolia soulangeana,
 Pterocarya,
 Sophora pendula,
@@ -570,13 +655,83 @@
 Ginkgo biloba ,
 Aesculus,
 Fraxinus...
-Arbres fruitiers
-Pommiers,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Parc_d'Émonville</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_d%27%C3%89monville</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Arbres fruitiers</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pommiers,
 Poiriers,
 Figuiers,
 Pêchers,
-Olivier.
-Arbustes
+Olivier.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Parc_d'Émonville</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_d%27%C3%89monville</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Arbustes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acer aureum, (érable)
 Buxus elegans, (Buis)
 Ceanothus thyrsiflorus,
@@ -591,7 +746,43 @@
 Sambucus nigra laciniata,
 Sumac de Virginie,
 Viburnum tinus...
-Plantes vivaces
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Parc_d'Émonville</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_d%27%C3%89monville</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes vivaces</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Achillea taygetea,
 Aegopodium variegatum,
 Alchemilla erythropoda,
@@ -621,7 +812,43 @@
 Rudbeckia,
 Stachys big ears,
 stipe.
-Fleurs annuelles
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Parc_d'Émonville</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_d%27%C3%89monville</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fleurs annuelles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Abutilon panaché,
 Agastache,
 Anthémis,
@@ -642,62 +869,66 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Parc_d%27%C3%89monville</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Parc_d%27%C3%89monville</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Parc_d'Émonville</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_d%27%C3%89monville</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Les Jardins du Carmel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ancien verger devenu jardin public est attenant au parc municipal d’Emonville. Quelques spécimens du XIXe siècle subsistent ainsi que des palmettes, des espaliers, cordons et contre espaliers le long des murs. Une grille fait communiquer le verger et le potager divisé en six carrés rectangulaires, entourés d’allées bordurées de buis. Un cloître central est planté d’un prunus pourpre et d’if. Une pergola et un petit bassin fleuri complètent l'aménagement ornemental.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Parc_d%27%C3%89monville</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Parc_d%27%C3%89monville</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Parc_d'Émonville</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_d%27%C3%89monville</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
